--- a/doc/小组工作计划表.xlsx
+++ b/doc/小组工作计划表.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>第五周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +34,26 @@
   </si>
   <si>
     <t>周一（2019-4-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论项目实体内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二（2019-4-2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组成员模拟实现各自实体内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三（2019-4-3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,17 +379,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -387,6 +406,25 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组工作计划表.xlsx
+++ b/doc/小组工作计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>第五周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢朋举</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,7 +396,7 @@
     <col min="3" max="3" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -411,15 +415,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
